--- a/[Document]/진로현황사진/DEBA_진로현황업데이트.xlsx
+++ b/[Document]/진로현황사진/DEBA_진로현황업데이트.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>공간</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>차명주</t>
-  </si>
-  <si>
-    <t>성균관대 대학원?</t>
   </si>
   <si>
     <t>010-8861-1685</t>
@@ -281,14 +278,14 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf quotePrefix="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -596,14 +593,14 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
@@ -614,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6">
         <v>2.0210079E8</v>
@@ -623,13 +620,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
@@ -640,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6">
         <v>2.02100794E8</v>
@@ -649,102 +646,102 @@
         <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D8" s="5">
         <v>2.01900833E8</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5">
         <v>2.02200803E8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5">
         <v>2.02201788E8</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5">
         <v>2.02300733E8</v>
@@ -753,39 +750,39 @@
         <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5">
         <v>2.02300811E8</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>32</v>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1"/>

--- a/[Document]/진로현황사진/DEBA_진로현황업데이트.xlsx
+++ b/[Document]/진로현황사진/DEBA_진로현황업데이트.xlsx
@@ -510,7 +510,7 @@
     <col customWidth="1" min="3" max="3" width="6.71"/>
     <col customWidth="1" min="4" max="4" width="10.14"/>
     <col customWidth="1" min="5" max="5" width="32.14"/>
-    <col customWidth="1" min="6" max="6" width="19.86"/>
+    <col customWidth="1" min="6" max="6" width="41.71"/>
     <col customWidth="1" min="7" max="7" width="13.86"/>
     <col customWidth="1" min="8" max="8" width="27.86"/>
     <col customWidth="1" min="9" max="26" width="8.71"/>

--- a/[Document]/진로현황사진/DEBA_진로현황업데이트.xlsx
+++ b/[Document]/진로현황사진/DEBA_진로현황업데이트.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>공간</t>
   </si>
@@ -60,19 +60,23 @@
     <t>무역학부</t>
   </si>
   <si>
+    <t>2024.09~ 현재 홍익대학교 일반대학원 행정조교로 근무
++ 이직 공부중</t>
+  </si>
+  <si>
+    <t>010-6474-3783</t>
+  </si>
+  <si>
+    <t>zjstpq1234@naver.com</t>
+  </si>
+  <si>
+    <t>2022-2024</t>
+  </si>
+  <si>
+    <t>차명주</t>
+  </si>
+  <si>
     <t>취업</t>
-  </si>
-  <si>
-    <t>010-6474-3783</t>
-  </si>
-  <si>
-    <t>zjstpq1234@naver.com</t>
-  </si>
-  <si>
-    <t>2022-2024</t>
-  </si>
-  <si>
-    <t>차명주</t>
   </si>
   <si>
     <t>010-8861-1685</t>
@@ -257,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -274,6 +278,9 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
@@ -510,8 +517,8 @@
     <col customWidth="1" min="3" max="3" width="6.71"/>
     <col customWidth="1" min="4" max="4" width="10.14"/>
     <col customWidth="1" min="5" max="5" width="32.14"/>
-    <col customWidth="1" min="6" max="6" width="41.71"/>
-    <col customWidth="1" min="7" max="7" width="13.86"/>
+    <col customWidth="1" min="6" max="6" width="49.29"/>
+    <col customWidth="1" min="7" max="7" width="16.43"/>
     <col customWidth="1" min="8" max="8" width="27.86"/>
     <col customWidth="1" min="9" max="26" width="8.71"/>
   </cols>
@@ -551,7 +558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" ht="30.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -567,13 +574,13 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -593,14 +600,14 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="9" t="s">
         <v>20</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
@@ -611,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6">
         <v>2.0210079E8</v>
@@ -620,13 +627,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="10" t="s">
         <v>24</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
@@ -637,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6">
         <v>2.02100794E8</v>
@@ -646,102 +653,102 @@
         <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5">
         <v>2.01900833E8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="12" t="s">
         <v>34</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5">
         <v>2.02200803E8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="9" t="s">
         <v>38</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5">
         <v>2.02201788E8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="9" t="s">
         <v>42</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5">
         <v>2.02300733E8</v>
@@ -750,39 +757,39 @@
         <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="9" t="s">
         <v>45</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5">
         <v>2.02300811E8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>48</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1"/>

--- a/[Document]/진로현황사진/DEBA_진로현황업데이트.xlsx
+++ b/[Document]/진로현황사진/DEBA_진로현황업데이트.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\[Document]\진로현황사진\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E66C0-2FDB-4AAF-9C14-8C8C44DE06E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="aQ6VFdo9vBgg4gRWNl6sKSH5D2ZDWDzSs3GOXpXUUEI="/>
@@ -172,53 +181,74 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -226,7 +256,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -242,7 +272,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -256,57 +292,55 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -496,34 +530,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.43"/>
-    <col customWidth="1" min="2" max="2" width="13.14"/>
-    <col customWidth="1" min="3" max="3" width="6.71"/>
-    <col customWidth="1" min="4" max="4" width="10.14"/>
-    <col customWidth="1" min="5" max="5" width="32.14"/>
-    <col customWidth="1" min="6" max="6" width="49.29"/>
-    <col customWidth="1" min="7" max="7" width="16.43"/>
-    <col customWidth="1" min="8" max="8" width="27.86"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="5" max="5" width="32.08984375" customWidth="1"/>
+    <col min="6" max="6" width="49.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" customWidth="1"/>
+    <col min="9" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +565,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1"/>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -558,7 +592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="30.75" customHeight="1">
+    <row r="4" spans="1:8" ht="30.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -569,22 +603,22 @@
         <v>12</v>
       </c>
       <c r="D4" s="6">
-        <v>2.01800875E8</v>
+        <v>201800875</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -595,22 +629,22 @@
         <v>18</v>
       </c>
       <c r="D5" s="5">
-        <v>2.01900884E8</v>
+        <v>201900884</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:8" ht="16.5" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -621,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="6">
-        <v>2.0210079E8</v>
+        <v>202100790</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>13</v>
@@ -632,11 +666,11 @@
       <c r="G6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:8" ht="16.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -647,7 +681,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="6">
-        <v>2.02100794E8</v>
+        <v>202100794</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
@@ -658,11 +692,11 @@
       <c r="G7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:8" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -673,7 +707,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="5">
-        <v>2.01900833E8</v>
+        <v>201900833</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>32</v>
@@ -681,14 +715,14 @@
       <c r="F8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -699,7 +733,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="5">
-        <v>2.02200803E8</v>
+        <v>202200803</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -710,11 +744,11 @@
       <c r="G9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:8" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -725,7 +759,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="5">
-        <v>2.02201788E8</v>
+        <v>202201788</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>41</v>
@@ -736,11 +770,11 @@
       <c r="G10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
+    <row r="11" spans="1:8" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -751,7 +785,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="5">
-        <v>2.02300733E8</v>
+        <v>202300733</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>13</v>
@@ -762,11 +796,11 @@
       <c r="G11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -777,7 +811,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="5">
-        <v>2.02300811E8</v>
+        <v>202300811</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>32</v>
@@ -785,17 +819,17 @@
       <c r="F12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -1781,20 +1815,19 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
-    <hyperlink r:id="rId2" ref="H5"/>
-    <hyperlink r:id="rId3" ref="H6"/>
-    <hyperlink r:id="rId4" ref="H7"/>
-    <hyperlink r:id="rId5" ref="H8"/>
-    <hyperlink r:id="rId6" ref="H9"/>
-    <hyperlink r:id="rId7" ref="H10"/>
-    <hyperlink r:id="rId8" ref="H11"/>
-    <hyperlink r:id="rId9" ref="H12"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>
--- a/[Document]/진로현황사진/DEBA_진로현황업데이트.xlsx
+++ b/[Document]/진로현황사진/DEBA_진로현황업데이트.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\[Document]\진로현황사진\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E66C0-2FDB-4AAF-9C14-8C8C44DE06E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="aQ6VFdo9vBgg4gRWNl6sKSH5D2ZDWDzSs3GOXpXUUEI="/>
@@ -25,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>공간</t>
   </si>
@@ -152,6 +143,9 @@
   </si>
   <si>
     <t>경영학부</t>
+  </si>
+  <si>
+    <t>공모전 진행 및 자격증 준비</t>
   </si>
   <si>
     <t>010-9299-4302</t>
@@ -181,74 +175,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="8">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF0563C1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -256,7 +229,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -272,13 +245,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -292,55 +259,54 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf quotePrefix="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -530,34 +496,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" customWidth="1"/>
-    <col min="5" max="5" width="32.08984375" customWidth="1"/>
-    <col min="6" max="6" width="49.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" customWidth="1"/>
-    <col min="9" max="26" width="8.7265625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="10.43"/>
+    <col customWidth="1" min="2" max="2" width="13.14"/>
+    <col customWidth="1" min="3" max="3" width="6.71"/>
+    <col customWidth="1" min="4" max="4" width="10.14"/>
+    <col customWidth="1" min="5" max="5" width="32.14"/>
+    <col customWidth="1" min="6" max="6" width="49.29"/>
+    <col customWidth="1" min="7" max="7" width="16.43"/>
+    <col customWidth="1" min="8" max="8" width="27.86"/>
+    <col customWidth="1" min="9" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1">
+    <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,8 +531,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1">
+    <row r="2" ht="16.5" customHeight="1"/>
+    <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -592,7 +558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30.75" customHeight="1">
+    <row r="4" ht="30.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -603,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="6">
-        <v>201800875</v>
+        <v>2.01800875E8</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>13</v>
@@ -618,7 +584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
+    <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -629,7 +595,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="5">
-        <v>201900884</v>
+        <v>2.01900884E8</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
@@ -644,7 +610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1">
+    <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -655,7 +621,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="6">
-        <v>202100790</v>
+        <v>2.0210079E8</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>13</v>
@@ -670,7 +636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
+    <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -681,7 +647,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="6">
-        <v>202100794</v>
+        <v>2.02100794E8</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
@@ -696,7 +662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1">
+    <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -707,7 +673,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="5">
-        <v>201900833</v>
+        <v>2.01900833E8</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>32</v>
@@ -722,7 +688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1">
+    <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -733,7 +699,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="5">
-        <v>202200803</v>
+        <v>2.02200803E8</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -748,7 +714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
+    <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -759,22 +725,22 @@
         <v>40</v>
       </c>
       <c r="D10" s="5">
-        <v>202201788</v>
+        <v>2.02201788E8</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>37</v>
+      <c r="F10" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1">
+    <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -782,10 +748,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="5">
-        <v>202300733</v>
+        <v>2.02300733E8</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>13</v>
@@ -794,13 +760,13 @@
         <v>37</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1">
+    <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -808,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5">
-        <v>202300811</v>
+        <v>2.02300811E8</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>32</v>
@@ -820,16 +786,16 @@
         <v>37</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="13" ht="16.5" customHeight="1"/>
+    <row r="14" ht="16.5" customHeight="1"/>
+    <row r="15" ht="16.5" customHeight="1"/>
+    <row r="16" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -1815,19 +1781,20 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink r:id="rId2" ref="H5"/>
+    <hyperlink r:id="rId3" ref="H6"/>
+    <hyperlink r:id="rId4" ref="H7"/>
+    <hyperlink r:id="rId5" ref="H8"/>
+    <hyperlink r:id="rId6" ref="H9"/>
+    <hyperlink r:id="rId7" ref="H10"/>
+    <hyperlink r:id="rId8" ref="H11"/>
+    <hyperlink r:id="rId9" ref="H12"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId10"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/[Document]/진로현황사진/DEBA_진로현황업데이트.xlsx
+++ b/[Document]/진로현황사진/DEBA_진로현황업데이트.xlsx
@@ -130,31 +130,31 @@
     <t>유효정</t>
   </si>
   <si>
+    <t>공모전 진행 및 자격증 준비</t>
+  </si>
+  <si>
+    <t>010-9392-7358</t>
+  </si>
+  <si>
+    <t>yuhyojung02@naver.com</t>
+  </si>
+  <si>
+    <t>조은지</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>010-9299-4302</t>
+  </si>
+  <si>
+    <t>jonjilike@inu.ac.kr</t>
+  </si>
+  <si>
+    <t>강보현</t>
+  </si>
+  <si>
     <t>공모전 준비</t>
-  </si>
-  <si>
-    <t>010-9392-7358</t>
-  </si>
-  <si>
-    <t>yuhyojung02@naver.com</t>
-  </si>
-  <si>
-    <t>조은지</t>
-  </si>
-  <si>
-    <t>경영학부</t>
-  </si>
-  <si>
-    <t>공모전 진행 및 자격증 준비</t>
-  </si>
-  <si>
-    <t>010-9299-4302</t>
-  </si>
-  <si>
-    <t>jonjilike@inu.ac.kr</t>
-  </si>
-  <si>
-    <t>강보현</t>
   </si>
   <si>
     <t>010-2676-2527</t>
@@ -704,7 +704,7 @@
       <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -731,13 +731,13 @@
         <v>41</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
@@ -748,7 +748,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5">
         <v>2.02300733E8</v>
@@ -757,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>46</v>
@@ -783,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>49</v>
